--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Vegfa-Flt1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Vegfa-Flt1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.626383</v>
+        <v>2.628848666666667</v>
       </c>
       <c r="H2">
-        <v>10.879149</v>
+        <v>7.886546000000001</v>
       </c>
       <c r="I2">
-        <v>0.04794321320295086</v>
+        <v>0.04622248078033103</v>
       </c>
       <c r="J2">
-        <v>0.05075107175358264</v>
+        <v>0.04850184447997802</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>147.0592853333333</v>
+        <v>86.066935</v>
       </c>
       <c r="N2">
-        <v>441.177856</v>
+        <v>258.200805</v>
       </c>
       <c r="O2">
-        <v>0.9129893958419346</v>
+        <v>0.8916716774694496</v>
       </c>
       <c r="P2">
-        <v>0.9274576550077637</v>
+        <v>0.8955157110805073</v>
       </c>
       <c r="Q2">
-        <v>533.2932923249494</v>
+        <v>226.2569473188367</v>
       </c>
       <c r="R2">
-        <v>4799.639630924544</v>
+        <v>2036.31252586953</v>
       </c>
       <c r="S2">
-        <v>0.04377164525688317</v>
+        <v>0.04121527697419717</v>
       </c>
       <c r="T2">
-        <v>0.0470694699977085</v>
+        <v>0.0434341637482037</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.626383</v>
+        <v>2.628848666666667</v>
       </c>
       <c r="H3">
-        <v>10.879149</v>
+        <v>7.886546000000001</v>
       </c>
       <c r="I3">
-        <v>0.04794321320295086</v>
+        <v>0.04622248078033103</v>
       </c>
       <c r="J3">
-        <v>0.05075107175358264</v>
+        <v>0.04850184447997802</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>1.106414</v>
       </c>
       <c r="O3">
-        <v>0.00228965310854373</v>
+        <v>0.003820894467605101</v>
       </c>
       <c r="P3">
-        <v>0.002325937532793486</v>
+        <v>0.003837366502243974</v>
       </c>
       <c r="Q3">
-        <v>1.337426973520667</v>
+        <v>0.9695316562271111</v>
       </c>
       <c r="R3">
-        <v>12.036842761686</v>
+        <v>8.725784906044002</v>
       </c>
       <c r="S3">
-        <v>0.0001097733271437112</v>
+        <v>0.00017661122109255</v>
       </c>
       <c r="T3">
-        <v>0.0001180438226211532</v>
+        <v>0.0001861193533045145</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.626383</v>
+        <v>2.628848666666667</v>
       </c>
       <c r="H4">
-        <v>10.879149</v>
+        <v>7.886546000000001</v>
       </c>
       <c r="I4">
-        <v>0.04794321320295086</v>
+        <v>0.04622248078033103</v>
       </c>
       <c r="J4">
-        <v>0.05075107175358264</v>
+        <v>0.04850184447997802</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.963579</v>
+        <v>7.669867666666666</v>
       </c>
       <c r="N4">
-        <v>14.890737</v>
+        <v>23.009603</v>
       </c>
       <c r="O4">
-        <v>0.03081542917981618</v>
+        <v>0.07946145367329926</v>
       </c>
       <c r="P4">
-        <v>0.03130376520837289</v>
+        <v>0.07980401529819077</v>
       </c>
       <c r="Q4">
-        <v>17.999838504757</v>
+        <v>20.16292138902644</v>
       </c>
       <c r="R4">
-        <v>161.998546542813</v>
+        <v>181.466292501238</v>
       </c>
       <c r="S4">
-        <v>0.00147739069110836</v>
+        <v>0.00367290551519124</v>
       </c>
       <c r="T4">
-        <v>0.001588699634247436</v>
+        <v>0.003870641938870636</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.626383</v>
+        <v>2.628848666666667</v>
       </c>
       <c r="H5">
-        <v>10.879149</v>
+        <v>7.886546000000001</v>
       </c>
       <c r="I5">
-        <v>0.04794321320295086</v>
+        <v>0.04622248078033103</v>
       </c>
       <c r="J5">
-        <v>0.05075107175358264</v>
+        <v>0.04850184447997802</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.5382435</v>
+        <v>1.242987</v>
       </c>
       <c r="N5">
-        <v>15.076487</v>
+        <v>2.485974</v>
       </c>
       <c r="O5">
-        <v>0.04679974041200103</v>
+        <v>0.01287760861197995</v>
       </c>
       <c r="P5">
-        <v>0.0316942545701456</v>
+        <v>0.008622083011467191</v>
       </c>
       <c r="Q5">
-        <v>27.3365580782605</v>
+        <v>3.267624717634</v>
       </c>
       <c r="R5">
-        <v>164.019348469563</v>
+        <v>19.605748305804</v>
       </c>
       <c r="S5">
-        <v>0.002243729932415321</v>
+        <v>0.0005952350165638686</v>
       </c>
       <c r="T5">
-        <v>0.001608517387865773</v>
+        <v>0.0004181869293156423</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.626383</v>
+        <v>2.628848666666667</v>
       </c>
       <c r="H6">
-        <v>10.879149</v>
+        <v>7.886546000000001</v>
       </c>
       <c r="I6">
-        <v>0.04794321320295086</v>
+        <v>0.04622248078033103</v>
       </c>
       <c r="J6">
-        <v>0.05075107175358264</v>
+        <v>0.04850184447997802</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.14456</v>
+        <v>1.174528666666667</v>
       </c>
       <c r="N6">
-        <v>3.43368</v>
+        <v>3.523586</v>
       </c>
       <c r="O6">
-        <v>0.007105781457704291</v>
+        <v>0.01216836577766621</v>
       </c>
       <c r="P6">
-        <v>0.007218387680924444</v>
+        <v>0.01222082410759068</v>
       </c>
       <c r="Q6">
-        <v>4.15061292648</v>
+        <v>3.087658119328444</v>
       </c>
       <c r="R6">
-        <v>37.35551633832</v>
+        <v>27.788923073956</v>
       </c>
       <c r="S6">
-        <v>0.0003406739954002918</v>
+        <v>0.0005624520532862145</v>
       </c>
       <c r="T6">
-        <v>0.0003663409111397734</v>
+        <v>0.0005927325102835294</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>80.556074</v>
       </c>
       <c r="I7">
-        <v>0.3550017589220155</v>
+        <v>0.472133375270229</v>
       </c>
       <c r="J7">
-        <v>0.3757929128244233</v>
+        <v>0.4954156322762335</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>147.0592853333333</v>
+        <v>86.066935</v>
       </c>
       <c r="N7">
-        <v>441.177856</v>
+        <v>258.200805</v>
       </c>
       <c r="O7">
-        <v>0.9129893958419346</v>
+        <v>0.8916716774694496</v>
       </c>
       <c r="P7">
-        <v>0.9274576550077637</v>
+        <v>0.8955157110805073</v>
       </c>
       <c r="Q7">
-        <v>3948.839557233038</v>
+        <v>2311.071461604397</v>
       </c>
       <c r="R7">
-        <v>35539.55601509735</v>
+        <v>20799.64315443957</v>
       </c>
       <c r="S7">
-        <v>0.3241128414010351</v>
+        <v>0.4209879587165183</v>
       </c>
       <c r="T7">
-        <v>0.3485320136966766</v>
+        <v>0.4436524822182504</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>80.556074</v>
       </c>
       <c r="I8">
-        <v>0.3550017589220155</v>
+        <v>0.472133375270229</v>
       </c>
       <c r="J8">
-        <v>0.3757929128244233</v>
+        <v>0.4954156322762335</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>1.106414</v>
       </c>
       <c r="O8">
-        <v>0.00228965310854373</v>
+        <v>0.003820894467605101</v>
       </c>
       <c r="P8">
-        <v>0.002325937532793486</v>
+        <v>0.003837366502243974</v>
       </c>
       <c r="Q8">
         <v>9.903152006515111</v>
@@ -948,10 +948,10 @@
         <v>89.128368058636</v>
       </c>
       <c r="S8">
-        <v>0.0008128308808542846</v>
+        <v>0.001803971801541741</v>
       </c>
       <c r="T8">
-        <v>0.0008740708404961168</v>
+        <v>0.001901091351984837</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>80.556074</v>
       </c>
       <c r="I9">
-        <v>0.3550017589220155</v>
+        <v>0.472133375270229</v>
       </c>
       <c r="J9">
-        <v>0.3757929128244233</v>
+        <v>0.4954156322762335</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.963579</v>
+        <v>7.669867666666666</v>
       </c>
       <c r="N9">
-        <v>14.890737</v>
+        <v>23.009603</v>
       </c>
       <c r="O9">
-        <v>0.03081542917981618</v>
+        <v>0.07946145367329926</v>
       </c>
       <c r="P9">
-        <v>0.03130376520837289</v>
+        <v>0.07980401529819077</v>
       </c>
       <c r="Q9">
-        <v>133.2821457429487</v>
+        <v>205.9514757754024</v>
       </c>
       <c r="R9">
-        <v>1199.539311686538</v>
+        <v>1853.563281978622</v>
       </c>
       <c r="S9">
-        <v>0.01093953156077155</v>
+        <v>0.03751640432665372</v>
       </c>
       <c r="T9">
-        <v>0.01176373311002629</v>
+        <v>0.03953615669713539</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>80.556074</v>
       </c>
       <c r="I10">
-        <v>0.3550017589220155</v>
+        <v>0.472133375270229</v>
       </c>
       <c r="J10">
-        <v>0.3757929128244233</v>
+        <v>0.4954156322762335</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.5382435</v>
+        <v>1.242987</v>
       </c>
       <c r="N10">
-        <v>15.076487</v>
+        <v>2.485974</v>
       </c>
       <c r="O10">
-        <v>0.04679974041200103</v>
+        <v>0.01287760861197995</v>
       </c>
       <c r="P10">
-        <v>0.0316942545701456</v>
+        <v>0.008622083011467191</v>
       </c>
       <c r="Q10">
-        <v>202.4171004053397</v>
+        <v>33.376717584346</v>
       </c>
       <c r="R10">
-        <v>1214.502602432038</v>
+        <v>200.260305506076</v>
       </c>
       <c r="S10">
-        <v>0.0166139901633541</v>
+        <v>0.006079948819383063</v>
       </c>
       <c r="T10">
-        <v>0.0119104762447138</v>
+        <v>0.00427151470666419</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>80.556074</v>
       </c>
       <c r="I11">
-        <v>0.3550017589220155</v>
+        <v>0.472133375270229</v>
       </c>
       <c r="J11">
-        <v>0.3757929128244233</v>
+        <v>0.4954156322762335</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.14456</v>
+        <v>1.174528666666667</v>
       </c>
       <c r="N11">
-        <v>3.43368</v>
+        <v>3.523586</v>
       </c>
       <c r="O11">
-        <v>0.007105781457704291</v>
+        <v>0.01216836577766621</v>
       </c>
       <c r="P11">
-        <v>0.007218387680924444</v>
+        <v>0.01222082410759068</v>
       </c>
       <c r="Q11">
-        <v>30.73375335248</v>
+        <v>31.53847272904044</v>
       </c>
       <c r="R11">
-        <v>276.60378017232</v>
+        <v>283.846254561364</v>
       </c>
       <c r="S11">
-        <v>0.002522564916000467</v>
+        <v>0.005745091606132295</v>
       </c>
       <c r="T11">
-        <v>0.002712618932510531</v>
+        <v>0.006054387302198675</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>13.189183</v>
+        <v>11.96574466666667</v>
       </c>
       <c r="H12">
-        <v>39.567549</v>
+        <v>35.897234</v>
       </c>
       <c r="I12">
-        <v>0.1743698369812937</v>
+        <v>0.2103911152781009</v>
       </c>
       <c r="J12">
-        <v>0.1845820402324113</v>
+        <v>0.2207661073338543</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>147.0592853333333</v>
+        <v>86.066935</v>
       </c>
       <c r="N12">
-        <v>441.177856</v>
+        <v>258.200805</v>
       </c>
       <c r="O12">
-        <v>0.9129893958419346</v>
+        <v>0.8916716774694496</v>
       </c>
       <c r="P12">
-        <v>0.9274576550077637</v>
+        <v>0.8955157110805073</v>
       </c>
       <c r="Q12">
-        <v>1939.59182611055</v>
+        <v>1029.854968452596</v>
       </c>
       <c r="R12">
-        <v>17456.32643499495</v>
+        <v>9268.694716073369</v>
       </c>
       <c r="S12">
-        <v>0.159197812118608</v>
+        <v>0.1875997986846926</v>
       </c>
       <c r="T12">
-        <v>0.1711920261905008</v>
+        <v>0.1976995175915521</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>13.189183</v>
+        <v>11.96574466666667</v>
       </c>
       <c r="H13">
-        <v>39.567549</v>
+        <v>35.897234</v>
       </c>
       <c r="I13">
-        <v>0.1743698369812937</v>
+        <v>0.2103911152781009</v>
       </c>
       <c r="J13">
-        <v>0.1845820402324113</v>
+        <v>0.2207661073338543</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>1.106414</v>
       </c>
       <c r="O13">
-        <v>0.00228965310854373</v>
+        <v>0.003820894467605101</v>
       </c>
       <c r="P13">
-        <v>0.002325937532793486</v>
+        <v>0.003837366502243974</v>
       </c>
       <c r="Q13">
-        <v>4.864232239920667</v>
+        <v>4.413022473208444</v>
       </c>
       <c r="R13">
-        <v>43.778090159286</v>
+        <v>39.717202258876</v>
       </c>
       <c r="S13">
-        <v>0.0003992464392804827</v>
+        <v>0.0008038822483993628</v>
       </c>
       <c r="T13">
-        <v>0.0004293262952561626</v>
+        <v>0.0008471604651137302</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>13.189183</v>
+        <v>11.96574466666667</v>
       </c>
       <c r="H14">
-        <v>39.567549</v>
+        <v>35.897234</v>
       </c>
       <c r="I14">
-        <v>0.1743698369812937</v>
+        <v>0.2103911152781009</v>
       </c>
       <c r="J14">
-        <v>0.1845820402324113</v>
+        <v>0.2207661073338543</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.963579</v>
+        <v>7.669867666666666</v>
       </c>
       <c r="N14">
-        <v>14.890737</v>
+        <v>23.009603</v>
       </c>
       <c r="O14">
-        <v>0.03081542917981618</v>
+        <v>0.07946145367329926</v>
       </c>
       <c r="P14">
-        <v>0.03130376520837289</v>
+        <v>0.07980401529819077</v>
       </c>
       <c r="Q14">
-        <v>65.465551765957</v>
+        <v>91.77567812645576</v>
       </c>
       <c r="R14">
-        <v>589.189965893613</v>
+        <v>825.9811031381018</v>
       </c>
       <c r="S14">
-        <v>0.00537328136259315</v>
+        <v>0.01671798385994458</v>
       </c>
       <c r="T14">
-        <v>0.00577811284911784</v>
+        <v>0.01761802180699293</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>13.189183</v>
+        <v>11.96574466666667</v>
       </c>
       <c r="H15">
-        <v>39.567549</v>
+        <v>35.897234</v>
       </c>
       <c r="I15">
-        <v>0.1743698369812937</v>
+        <v>0.2103911152781009</v>
       </c>
       <c r="J15">
-        <v>0.1845820402324113</v>
+        <v>0.2207661073338543</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>7.5382435</v>
+        <v>1.242987</v>
       </c>
       <c r="N15">
-        <v>15.076487</v>
+        <v>2.485974</v>
       </c>
       <c r="O15">
-        <v>0.04679974041200103</v>
+        <v>0.01287760861197995</v>
       </c>
       <c r="P15">
-        <v>0.0316942545701456</v>
+        <v>0.008622083011467191</v>
       </c>
       <c r="Q15">
-        <v>99.42327302006051</v>
+        <v>14.873265065986</v>
       </c>
       <c r="R15">
-        <v>596.539638120363</v>
+        <v>89.23959039591598</v>
       </c>
       <c r="S15">
-        <v>0.008160463106407485</v>
+        <v>0.002709334437989338</v>
       </c>
       <c r="T15">
-        <v>0.005850190172202899</v>
+        <v>0.001903463703550967</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>13.189183</v>
+        <v>11.96574466666667</v>
       </c>
       <c r="H16">
-        <v>39.567549</v>
+        <v>35.897234</v>
       </c>
       <c r="I16">
-        <v>0.1743698369812937</v>
+        <v>0.2103911152781009</v>
       </c>
       <c r="J16">
-        <v>0.1845820402324113</v>
+        <v>0.2207661073338543</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.14456</v>
+        <v>1.174528666666667</v>
       </c>
       <c r="N16">
-        <v>3.43368</v>
+        <v>3.523586</v>
       </c>
       <c r="O16">
-        <v>0.007105781457704291</v>
+        <v>0.01216836577766621</v>
       </c>
       <c r="P16">
-        <v>0.007218387680924444</v>
+        <v>0.01222082410759068</v>
       </c>
       <c r="Q16">
-        <v>15.09581129448</v>
+        <v>14.05411012901378</v>
       </c>
       <c r="R16">
-        <v>135.86230165032</v>
+        <v>126.486991161124</v>
       </c>
       <c r="S16">
-        <v>0.001239033954404597</v>
+        <v>0.00256011604707507</v>
       </c>
       <c r="T16">
-        <v>0.001332384725333538</v>
+        <v>0.002697943766644518</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>12.554453</v>
+        <v>8.018423</v>
       </c>
       <c r="H17">
-        <v>25.108906</v>
+        <v>16.036846</v>
       </c>
       <c r="I17">
-        <v>0.1659782810655758</v>
+        <v>0.1409862072722574</v>
       </c>
       <c r="J17">
-        <v>0.1171326810635613</v>
+        <v>0.09862576223372788</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>147.0592853333333</v>
+        <v>86.066935</v>
       </c>
       <c r="N17">
-        <v>441.177856</v>
+        <v>258.200805</v>
       </c>
       <c r="O17">
-        <v>0.9129893958419346</v>
+        <v>0.8916716774694496</v>
       </c>
       <c r="P17">
-        <v>0.9274576550077637</v>
+        <v>0.8955157110805073</v>
       </c>
       <c r="Q17">
-        <v>1846.248885930923</v>
+        <v>690.1210911435051</v>
       </c>
       <c r="R17">
-        <v>11077.49331558554</v>
+        <v>4140.72654686103</v>
       </c>
       <c r="S17">
-        <v>0.1515364105529429</v>
+        <v>0.1257134079385093</v>
       </c>
       <c r="T17">
-        <v>0.1086356017039828</v>
+        <v>0.08832091959759386</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>12.554453</v>
+        <v>8.018423</v>
       </c>
       <c r="H18">
-        <v>25.108906</v>
+        <v>16.036846</v>
       </c>
       <c r="I18">
-        <v>0.1659782810655758</v>
+        <v>0.1409862072722574</v>
       </c>
       <c r="J18">
-        <v>0.1171326810635613</v>
+        <v>0.09862576223372788</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>1.106414</v>
       </c>
       <c r="O18">
-        <v>0.00228965310854373</v>
+        <v>0.003820894467605101</v>
       </c>
       <c r="P18">
-        <v>0.002325937532793486</v>
+        <v>0.003837366502243974</v>
       </c>
       <c r="Q18">
-        <v>4.630140853847333</v>
+        <v>2.957231821707333</v>
       </c>
       <c r="R18">
-        <v>27.780845123084</v>
+        <v>17.743390930244</v>
       </c>
       <c r="S18">
-        <v>0.0003800326871925405</v>
+        <v>0.0005386934193751945</v>
       </c>
       <c r="T18">
-        <v>0.000272443299202466</v>
+        <v>0.0003784631962539862</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>12.554453</v>
+        <v>8.018423</v>
       </c>
       <c r="H19">
-        <v>25.108906</v>
+        <v>16.036846</v>
       </c>
       <c r="I19">
-        <v>0.1659782810655758</v>
+        <v>0.1409862072722574</v>
       </c>
       <c r="J19">
-        <v>0.1171326810635613</v>
+        <v>0.09862576223372788</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.963579</v>
+        <v>7.669867666666666</v>
       </c>
       <c r="N19">
-        <v>14.890737</v>
+        <v>23.009603</v>
       </c>
       <c r="O19">
-        <v>0.03081542917981618</v>
+        <v>0.07946145367329926</v>
       </c>
       <c r="P19">
-        <v>0.03130376520837289</v>
+        <v>0.07980401529819077</v>
       </c>
       <c r="Q19">
-        <v>62.315019267287</v>
+        <v>61.50024330535633</v>
       </c>
       <c r="R19">
-        <v>373.8901156037219</v>
+        <v>369.001459832138</v>
       </c>
       <c r="S19">
-        <v>0.005114691965563876</v>
+        <v>0.01120296897773865</v>
       </c>
       <c r="T19">
-        <v>0.003666693946240946</v>
+        <v>0.007870731838096145</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>12.554453</v>
+        <v>8.018423</v>
       </c>
       <c r="H20">
-        <v>25.108906</v>
+        <v>16.036846</v>
       </c>
       <c r="I20">
-        <v>0.1659782810655758</v>
+        <v>0.1409862072722574</v>
       </c>
       <c r="J20">
-        <v>0.1171326810635613</v>
+        <v>0.09862576223372788</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>7.5382435</v>
+        <v>1.242987</v>
       </c>
       <c r="N20">
-        <v>15.076487</v>
+        <v>2.485974</v>
       </c>
       <c r="O20">
-        <v>0.04679974041200103</v>
+        <v>0.01287760861197995</v>
       </c>
       <c r="P20">
-        <v>0.0316942545701456</v>
+        <v>0.008622083011467191</v>
       </c>
       <c r="Q20">
-        <v>94.6385237233055</v>
+        <v>9.966795549500999</v>
       </c>
       <c r="R20">
-        <v>378.554094893222</v>
+        <v>39.867182198004</v>
       </c>
       <c r="S20">
-        <v>0.007767740467899093</v>
+        <v>0.001815565196939613</v>
       </c>
       <c r="T20">
-        <v>0.003712433012112183</v>
+        <v>0.0008503595090484276</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>12.554453</v>
+        <v>8.018423</v>
       </c>
       <c r="H21">
-        <v>25.108906</v>
+        <v>16.036846</v>
       </c>
       <c r="I21">
-        <v>0.1659782810655758</v>
+        <v>0.1409862072722574</v>
       </c>
       <c r="J21">
-        <v>0.1171326810635613</v>
+        <v>0.09862576223372788</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.14456</v>
+        <v>1.174528666666667</v>
       </c>
       <c r="N21">
-        <v>3.43368</v>
+        <v>3.523586</v>
       </c>
       <c r="O21">
-        <v>0.007105781457704291</v>
+        <v>0.01216836577766621</v>
       </c>
       <c r="P21">
-        <v>0.007218387680924444</v>
+        <v>0.01222082410759068</v>
       </c>
       <c r="Q21">
-        <v>14.36932472568</v>
+        <v>9.417867674959332</v>
       </c>
       <c r="R21">
-        <v>86.21594835408</v>
+        <v>56.507206049756</v>
       </c>
       <c r="S21">
-        <v>0.0011794053919774</v>
+        <v>0.001715571739694693</v>
       </c>
       <c r="T21">
-        <v>0.0008455091020228625</v>
+        <v>0.001205288092735448</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>19.41708766666667</v>
+        <v>7.408770666666666</v>
       </c>
       <c r="H22">
-        <v>58.251263</v>
+        <v>22.226312</v>
       </c>
       <c r="I22">
-        <v>0.2567069098281642</v>
+        <v>0.1302668213990815</v>
       </c>
       <c r="J22">
-        <v>0.2717412941260215</v>
+        <v>0.1366906536762062</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>147.0592853333333</v>
+        <v>86.066935</v>
       </c>
       <c r="N22">
-        <v>441.177856</v>
+        <v>258.200805</v>
       </c>
       <c r="O22">
-        <v>0.9129893958419346</v>
+        <v>0.8916716774694496</v>
       </c>
       <c r="P22">
-        <v>0.9274576550077637</v>
+        <v>0.8955157110805073</v>
       </c>
       <c r="Q22">
-        <v>2855.463035514681</v>
+        <v>637.6501833979066</v>
       </c>
       <c r="R22">
-        <v>25699.16731963213</v>
+        <v>5738.85165058116</v>
       </c>
       <c r="S22">
-        <v>0.2343706865124656</v>
+        <v>0.1161552351555322</v>
       </c>
       <c r="T22">
-        <v>0.2520285434188949</v>
+        <v>0.1224086279249072</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>19.41708766666667</v>
+        <v>7.408770666666666</v>
       </c>
       <c r="H23">
-        <v>58.251263</v>
+        <v>22.226312</v>
       </c>
       <c r="I23">
-        <v>0.2567069098281642</v>
+        <v>0.1302668213990815</v>
       </c>
       <c r="J23">
-        <v>0.2717412941260215</v>
+        <v>0.1366906536762062</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>1.106414</v>
       </c>
       <c r="O23">
-        <v>0.00228965310854373</v>
+        <v>0.003820894467605101</v>
       </c>
       <c r="P23">
-        <v>0.002325937532793486</v>
+        <v>0.003837366502243974</v>
       </c>
       <c r="Q23">
-        <v>7.161112544542445</v>
+        <v>2.732389196129778</v>
       </c>
       <c r="R23">
-        <v>64.450012900882</v>
+        <v>24.591502765168</v>
       </c>
       <c r="S23">
-        <v>0.0005877697740727111</v>
+        <v>0.0004977357771962525</v>
       </c>
       <c r="T23">
-        <v>0.0006320532752175876</v>
+        <v>0.0005245321355869057</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>19.41708766666667</v>
+        <v>7.408770666666666</v>
       </c>
       <c r="H24">
-        <v>58.251263</v>
+        <v>22.226312</v>
       </c>
       <c r="I24">
-        <v>0.2567069098281642</v>
+        <v>0.1302668213990815</v>
       </c>
       <c r="J24">
-        <v>0.2717412941260215</v>
+        <v>0.1366906536762062</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>4.963579</v>
+        <v>7.669867666666666</v>
       </c>
       <c r="N24">
-        <v>14.890737</v>
+        <v>23.009603</v>
       </c>
       <c r="O24">
-        <v>0.03081542917981618</v>
+        <v>0.07946145367329926</v>
       </c>
       <c r="P24">
-        <v>0.03130376520837289</v>
+        <v>0.07980401529819077</v>
       </c>
       <c r="Q24">
-        <v>96.37824858342567</v>
+        <v>56.8242905860151</v>
       </c>
       <c r="R24">
-        <v>867.404237250831</v>
+        <v>511.418615274136</v>
       </c>
       <c r="S24">
-        <v>0.007910533599779251</v>
+        <v>0.01035119099377107</v>
       </c>
       <c r="T24">
-        <v>0.008506525668740376</v>
+        <v>0.01090846301709565</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>19.41708766666667</v>
+        <v>7.408770666666666</v>
       </c>
       <c r="H25">
-        <v>58.251263</v>
+        <v>22.226312</v>
       </c>
       <c r="I25">
-        <v>0.2567069098281642</v>
+        <v>0.1302668213990815</v>
       </c>
       <c r="J25">
-        <v>0.2717412941260215</v>
+        <v>0.1366906536762062</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>7.5382435</v>
+        <v>1.242987</v>
       </c>
       <c r="N25">
-        <v>15.076487</v>
+        <v>2.485974</v>
       </c>
       <c r="O25">
-        <v>0.04679974041200103</v>
+        <v>0.01287760861197995</v>
       </c>
       <c r="P25">
-        <v>0.0316942545701456</v>
+        <v>0.008622083011467191</v>
       </c>
       <c r="Q25">
-        <v>146.3707348921802</v>
+        <v>9.209005624647999</v>
       </c>
       <c r="R25">
-        <v>878.224409353081</v>
+        <v>55.25403374788799</v>
       </c>
       <c r="S25">
-        <v>0.01201381674192504</v>
+        <v>0.001677525141104066</v>
       </c>
       <c r="T25">
-        <v>0.008612637753250937</v>
+        <v>0.001178558162887963</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>19.41708766666667</v>
+        <v>7.408770666666666</v>
       </c>
       <c r="H26">
-        <v>58.251263</v>
+        <v>22.226312</v>
       </c>
       <c r="I26">
-        <v>0.2567069098281642</v>
+        <v>0.1302668213990815</v>
       </c>
       <c r="J26">
-        <v>0.2717412941260215</v>
+        <v>0.1366906536762062</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.14456</v>
+        <v>1.174528666666667</v>
       </c>
       <c r="N26">
-        <v>3.43368</v>
+        <v>3.523586</v>
       </c>
       <c r="O26">
-        <v>0.007105781457704291</v>
+        <v>0.01216836577766621</v>
       </c>
       <c r="P26">
-        <v>0.007218387680924444</v>
+        <v>0.01222082410759068</v>
       </c>
       <c r="Q26">
-        <v>22.22402185976</v>
+        <v>8.701813532759109</v>
       </c>
       <c r="R26">
-        <v>200.01619673784</v>
+        <v>78.31632179483199</v>
       </c>
       <c r="S26">
-        <v>0.001824103199921537</v>
+        <v>0.001585134331477941</v>
       </c>
       <c r="T26">
-        <v>0.00196153400991774</v>
+        <v>0.001670472435728509</v>
       </c>
     </row>
   </sheetData>
